--- a/voucher_template.xlsx
+++ b/voucher_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB507503-D5D9-4217-AE32-90A82072D8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C68CE8-18E4-4721-829F-7D87A4A43F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7CD113E2-5822-42DB-B880-3C84A6BCF0B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>DATE:</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Thank You For Booking Your Trip With Us!</t>
-  </si>
-  <si>
-    <t>TRANSFER &amp; TOURS/ACTIVITIES</t>
   </si>
   <si>
     <t>Place</t>
@@ -207,6 +204,12 @@
   </si>
   <si>
     <t xml:space="preserve">TRAVELLERS NAME: </t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -862,6 +865,57 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -871,6 +925,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,78 +1013,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
@@ -1503,16 +1506,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
@@ -1546,83 +1549,83 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="68"/>
       <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="30">
         <v>1025441091</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="24.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
@@ -1634,73 +1637,73 @@
       <c r="H11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="62">
         <v>2</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59">
+        <v>1</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="28"/>
       <c r="G16" s="25"/>
       <c r="H16" s="17"/>
@@ -1708,10 +1711,10 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:11" ht="124.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="56"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="28"/>
       <c r="G17" s="25"/>
       <c r="H17" s="17"/>
@@ -1719,10 +1722,10 @@
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:11" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="28"/>
       <c r="G18" s="21"/>
       <c r="H18" s="17"/>
@@ -1730,10 +1733,10 @@
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="97.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="27"/>
       <c r="G19" s="22"/>
       <c r="H19" s="17"/>
@@ -1741,10 +1744,10 @@
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="27"/>
       <c r="G20" s="29"/>
       <c r="H20" s="17"/>
@@ -1752,10 +1755,10 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:11" ht="169.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="26"/>
       <c r="G21" s="22"/>
       <c r="H21" s="17"/>
@@ -1763,10 +1766,10 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="26"/>
       <c r="G22" s="22"/>
       <c r="H22" s="17"/>
@@ -1774,10 +1777,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="27"/>
       <c r="G23" s="22"/>
       <c r="H23" s="17"/>
@@ -1785,10 +1788,10 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="27"/>
       <c r="G24" s="22"/>
       <c r="H24" s="17"/>
@@ -1796,10 +1799,10 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="17"/>
@@ -1807,10 +1810,10 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="17"/>
@@ -1818,409 +1821,418 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68" t="s">
+      <c r="B28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="20"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="20"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="20"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
       <c r="J31" s="20"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="B32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="20"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="20"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="20"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="20"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="20"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="20"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
+      <c r="B39" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="B43" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="B43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="76"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B46:J59"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B28:E31"/>
-    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B39:J41"/>
     <mergeCell ref="B38:J38"/>
@@ -2235,21 +2247,12 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B13:J14"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B46:J59"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B28:E31"/>
+    <mergeCell ref="B43:J43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
